--- a/data/trans_orig/P1410-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>41456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30678</v>
+        <v>30108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53295</v>
+        <v>54708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07096898007942593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05251744945563091</v>
+        <v>0.05154262577085105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0912366333942565</v>
+        <v>0.09365558570260436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -765,19 +765,19 @@
         <v>64264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51122</v>
+        <v>51087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82548</v>
+        <v>80444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06967563691770011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05542700858898068</v>
+        <v>0.05538909507790244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08949894287627524</v>
+        <v>0.0872174721361689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -786,19 +786,19 @@
         <v>105720</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85828</v>
+        <v>88629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128332</v>
+        <v>125395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0701771357974622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05697296584242929</v>
+        <v>0.05883193442457278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08518730545293685</v>
+        <v>0.08323713637598941</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>542685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>530846</v>
+        <v>529433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>553463</v>
+        <v>554033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9290310199205741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9087633666057439</v>
+        <v>0.9063444142973958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9474825505443691</v>
+        <v>0.9484573742291492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>824</v>
@@ -836,19 +836,19 @@
         <v>858069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>839785</v>
+        <v>841889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>871211</v>
+        <v>871246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9303243630822999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9105010571237249</v>
+        <v>0.9127825278638302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9445729914110194</v>
+        <v>0.9446109049220975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1353</v>
@@ -857,19 +857,19 @@
         <v>1400754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1378142</v>
+        <v>1381079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1420646</v>
+        <v>1417845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9298228642025378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9148126945470633</v>
+        <v>0.9167628636240104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430270341575708</v>
+        <v>0.9411680655754271</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>51011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38249</v>
+        <v>38718</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66459</v>
+        <v>66781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04732484085940374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03548486166601138</v>
+        <v>0.03592013506289344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06165612938426804</v>
+        <v>0.06195533420812618</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>30519</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21074</v>
+        <v>21167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42725</v>
+        <v>43281</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02885836390387578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0199278833438254</v>
+        <v>0.02001523962562669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04040035513317663</v>
+        <v>0.04092600729666433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1003,19 +1003,19 @@
         <v>81530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65298</v>
+        <v>64195</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99631</v>
+        <v>100609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03817961832924529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03057843253319229</v>
+        <v>0.03006181047231688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04665608302811423</v>
+        <v>0.04711399891795856</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1026883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1011435</v>
+        <v>1011113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1039645</v>
+        <v>1039176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9526751591405963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.938343870615732</v>
+        <v>0.9380446657918738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9645151383339887</v>
+        <v>0.9640798649371067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>999</v>
@@ -1053,19 +1053,19 @@
         <v>1027019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1014813</v>
+        <v>1014257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1036464</v>
+        <v>1036371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9711416360961242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9595996448668234</v>
+        <v>0.9590739927033355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9800721166561749</v>
+        <v>0.979984760374373</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2003</v>
@@ -1074,19 +1074,19 @@
         <v>2053902</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2035801</v>
+        <v>2034823</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2070134</v>
+        <v>2071237</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9618203816707547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9533439169718858</v>
+        <v>0.9528860010820415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9694215674668079</v>
+        <v>0.9699381895276833</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>35516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24392</v>
+        <v>25784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47358</v>
+        <v>49260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03166593237855383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02174793033254574</v>
+        <v>0.02298863202829045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04222427219737006</v>
+        <v>0.04391966509029967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10991</v>
+        <v>11627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27796</v>
+        <v>29516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01854501896093351</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0110581389783363</v>
+        <v>0.01169824258619162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02796510703395049</v>
+        <v>0.02969629586243522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1220,19 +1220,19 @@
         <v>53949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40850</v>
+        <v>41874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68424</v>
+        <v>70248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02550134403665284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.019309369529517</v>
+        <v>0.01979350171992749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0323438368967004</v>
+        <v>0.03320568502310806</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1086078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1074236</v>
+        <v>1072334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1097202</v>
+        <v>1095810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9683340676214461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9577757278026299</v>
+        <v>0.9560803349097002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9782520696674541</v>
+        <v>0.9770113679717095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>964</v>
@@ -1270,19 +1270,19 @@
         <v>975507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>966144</v>
+        <v>964424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>982949</v>
+        <v>982313</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9814549810390665</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9720348929660496</v>
+        <v>0.9703037041375647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9889418610216637</v>
+        <v>0.9883017574138084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2029</v>
@@ -1291,19 +1291,19 @@
         <v>2061585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2047110</v>
+        <v>2045286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2074684</v>
+        <v>2073660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9744986559633472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9676561631032995</v>
+        <v>0.9667943149768919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.980690630470483</v>
+        <v>0.9802064982800726</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6640</v>
+        <v>7188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21014</v>
+        <v>19950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0281675448465138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01484707121495921</v>
+        <v>0.01607393101640393</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04698935875302595</v>
+        <v>0.04461025992544129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>11526</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5865</v>
+        <v>6137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19253</v>
+        <v>19868</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03378394362039015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01719270261666437</v>
+        <v>0.01798936913013188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05643482399115041</v>
+        <v>0.05823785087888828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>24122</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15783</v>
+        <v>15992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35062</v>
+        <v>35196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03059801513871506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02002010648133249</v>
+        <v>0.02028474817194378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04447452769779431</v>
+        <v>0.04464473435710104</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>434603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426186</v>
+        <v>427250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>440560</v>
+        <v>440012</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9718324551534862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9530106412469741</v>
+        <v>0.9553897400745588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9851529287850408</v>
+        <v>0.983926068983596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1487,19 +1487,19 @@
         <v>329632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321905</v>
+        <v>321290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335293</v>
+        <v>335021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9662160563796098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9435651760088496</v>
+        <v>0.9417621491211118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9828072973833357</v>
+        <v>0.9820106308698682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>751</v>
@@ -1508,19 +1508,19 @@
         <v>764236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>753296</v>
+        <v>753162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>772575</v>
+        <v>772366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9694019848612849</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9555254723022056</v>
+        <v>0.955355265642899</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9799798935186675</v>
+        <v>0.9797152518280562</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>140580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119028</v>
+        <v>119385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164053</v>
+        <v>163984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04351202457245347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03684124488373684</v>
+        <v>0.03695172920706359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05077739111815022</v>
+        <v>0.0507558804038846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -1633,19 +1633,19 @@
         <v>124741</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103731</v>
+        <v>106008</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147187</v>
+        <v>147582</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03762969266784175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03129176772083412</v>
+        <v>0.0319786516424645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04440072507479475</v>
+        <v>0.04451995687944516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -1654,19 +1654,19 @@
         <v>265321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235269</v>
+        <v>233220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300812</v>
+        <v>299515</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04053305294647641</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03594195543333321</v>
+        <v>0.0356289603145401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04595492684586287</v>
+        <v>0.04575677318441085</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3090249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3066776</v>
+        <v>3066845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3111801</v>
+        <v>3111444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9564879754275465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9492226088818497</v>
+        <v>0.9492441195961163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9631587551162633</v>
+        <v>0.9630482707929365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3115</v>
@@ -1704,19 +1704,19 @@
         <v>3190228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3167782</v>
+        <v>3167387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3211238</v>
+        <v>3208961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9623703073321582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9555992749252055</v>
+        <v>0.9554800431205548</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9687082322791658</v>
+        <v>0.9680213483575355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6136</v>
@@ -1725,19 +1725,19 @@
         <v>6280477</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6244986</v>
+        <v>6246283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6310529</v>
+        <v>6312578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9594669470535235</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9540450731541377</v>
+        <v>0.954243226815589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9640580445666672</v>
+        <v>0.9643710396854598</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>35808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25644</v>
+        <v>26192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48711</v>
+        <v>49995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03430102645671881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02456430877475409</v>
+        <v>0.02508977356683868</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04666086424917263</v>
+        <v>0.04789055997363478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -2090,19 +2090,19 @@
         <v>62812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48135</v>
+        <v>48643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79806</v>
+        <v>79815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05620878639934365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04307470307589516</v>
+        <v>0.0435293614093991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07141692160729825</v>
+        <v>0.07142508716252577</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -2111,19 +2111,19 @@
         <v>98620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81829</v>
+        <v>81468</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118821</v>
+        <v>120570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04562757963140394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0378593160622604</v>
+        <v>0.03769198803899674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05497379523032032</v>
+        <v>0.05578313118857916</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1008127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>995224</v>
+        <v>993940</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1018291</v>
+        <v>1017743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9656989735432812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9533391357508274</v>
+        <v>0.9521094400263649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9754356912252459</v>
+        <v>0.9749102264331612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>970</v>
@@ -2161,19 +2161,19 @@
         <v>1054658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1037664</v>
+        <v>1037655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1069335</v>
+        <v>1068827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9437912136006563</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9285830783927019</v>
+        <v>0.9285749128374743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9569252969241049</v>
+        <v>0.956470638590601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1915</v>
@@ -2182,19 +2182,19 @@
         <v>2062785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2042584</v>
+        <v>2040835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2079576</v>
+        <v>2079937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.954372420368596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9450262047696797</v>
+        <v>0.9442168688114209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9621406839377397</v>
+        <v>0.9623080119610032</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>36182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24573</v>
+        <v>24353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49939</v>
+        <v>50040</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03703092076622042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02514956633252102</v>
+        <v>0.02492487389720614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05111045646736669</v>
+        <v>0.05121394432598333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -2307,19 +2307,19 @@
         <v>45471</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33984</v>
+        <v>33479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59521</v>
+        <v>59490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04162729953294886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03111201712377031</v>
+        <v>0.03064953157163031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05448989345295523</v>
+        <v>0.05446200712689716</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -2328,19 +2328,19 @@
         <v>81653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64831</v>
+        <v>65808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101122</v>
+        <v>101663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03945710659347876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03132848805834382</v>
+        <v>0.03180036977389766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04886536355739703</v>
+        <v>0.04912675382703425</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>940891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>927134</v>
+        <v>927033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952500</v>
+        <v>952720</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9629690792337796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9488895435326328</v>
+        <v>0.9487860556740166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.974850433667479</v>
+        <v>0.975075126102794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>975</v>
@@ -2378,19 +2378,19 @@
         <v>1046856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1032806</v>
+        <v>1032837</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1058343</v>
+        <v>1058848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9583727004670511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9455101065470447</v>
+        <v>0.9455379928731028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9688879828762296</v>
+        <v>0.9693504684283696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1865</v>
@@ -2399,19 +2399,19 @@
         <v>1987747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1968278</v>
+        <v>1967737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2004569</v>
+        <v>2003592</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9605428934065212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.951134636442603</v>
+        <v>0.9508732461729661</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9686715119416561</v>
+        <v>0.9681996302261024</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>45620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33137</v>
+        <v>33328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61291</v>
+        <v>61295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05154154933427871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03743760365175261</v>
+        <v>0.03765426581231279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06924616633883085</v>
+        <v>0.06925055615449281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2524,19 +2524,19 @@
         <v>32361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21766</v>
+        <v>22534</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45129</v>
+        <v>45194</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03695070359951882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02485318341037692</v>
+        <v>0.0257295299080016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05152961482961047</v>
+        <v>0.05160338055091587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -2545,19 +2545,19 @@
         <v>77981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62216</v>
+        <v>61140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99997</v>
+        <v>97875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.044284736271105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03533189331192355</v>
+        <v>0.03472088345994451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05678719295642093</v>
+        <v>0.05558184084830099</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>839495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>823824</v>
+        <v>823820</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>851978</v>
+        <v>851787</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9484584506657213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9307538336611691</v>
+        <v>0.9307494438455073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9625623963482475</v>
+        <v>0.9623457341876872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>791</v>
@@ -2595,19 +2595,19 @@
         <v>843435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>830667</v>
+        <v>830602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>854030</v>
+        <v>853262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9630492964004812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9484703851703891</v>
+        <v>0.9483966194490836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.975146816589623</v>
+        <v>0.9742704700919983</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1579</v>
@@ -2616,19 +2616,19 @@
         <v>1682930</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1660914</v>
+        <v>1663036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1698695</v>
+        <v>1699771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.955715263728895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9432128070435791</v>
+        <v>0.9444181591516989</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9646681066880765</v>
+        <v>0.9652791165400555</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>14678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8390</v>
+        <v>8533</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23426</v>
+        <v>24247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02917896255195286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01667967565049689</v>
+        <v>0.01696378863402541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04657052538232907</v>
+        <v>0.04820159871043091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -2741,19 +2741,19 @@
         <v>7027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2822</v>
+        <v>3094</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16587</v>
+        <v>15356</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01552018543879328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006232664212272175</v>
+        <v>0.006834782593938578</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0366367161524092</v>
+        <v>0.03391885455862935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -2762,19 +2762,19 @@
         <v>21704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13507</v>
+        <v>13341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33103</v>
+        <v>33370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02270890125863348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01413220117266754</v>
+        <v>0.01395895765362016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03463549907075888</v>
+        <v>0.03491420680608285</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>488345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>479597</v>
+        <v>478776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494633</v>
+        <v>494490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9708210374480472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9534294746176709</v>
+        <v>0.9517984012895693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9833203243495031</v>
+        <v>0.9830362113659746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>406</v>
@@ -2812,19 +2812,19 @@
         <v>445709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436149</v>
+        <v>437380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449914</v>
+        <v>449642</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9844798145612067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9633632838475907</v>
+        <v>0.9660811454413705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9937673357877278</v>
+        <v>0.9931652174060613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>853</v>
@@ -2833,19 +2833,19 @@
         <v>934054</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>922655</v>
+        <v>922388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>942251</v>
+        <v>942417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9772910987413665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9653645009292411</v>
+        <v>0.9650857931939172</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9858677988273324</v>
+        <v>0.9860410423463799</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>132288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111736</v>
+        <v>108972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>159147</v>
+        <v>154104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03880380876060013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03277523870916813</v>
+        <v>0.03196472222323219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04668248404875367</v>
+        <v>0.04520309631567414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -2958,19 +2958,19 @@
         <v>147670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>127157</v>
+        <v>124059</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172564</v>
+        <v>174810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04173441645309712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0359369079625286</v>
+        <v>0.03506139348247422</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04876999735428744</v>
+        <v>0.04940468765657072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -2979,19 +2979,19 @@
         <v>279958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250564</v>
+        <v>246256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318701</v>
+        <v>312700</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04029635884392065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03606552920470565</v>
+        <v>0.03544537316911576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04587288527647515</v>
+        <v>0.04500910803109604</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3276857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3249998</v>
+        <v>3255041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3297409</v>
+        <v>3300173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9611961912393999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9533175159512464</v>
+        <v>0.9547969036843259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9672247612908319</v>
+        <v>0.9680352777767678</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3142</v>
@@ -3029,19 +3029,19 @@
         <v>3390658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3365764</v>
+        <v>3363518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3411171</v>
+        <v>3414269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9582655835469028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9512300026457126</v>
+        <v>0.9505953123434292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9640630920374714</v>
+        <v>0.9649386065175258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6212</v>
@@ -3050,19 +3050,19 @@
         <v>6667516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6628773</v>
+        <v>6634774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6696910</v>
+        <v>6701218</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9597036411560793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9541271147235246</v>
+        <v>0.954990891968904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9639344707952943</v>
+        <v>0.9645546268308842</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>36753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26386</v>
+        <v>26456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49172</v>
+        <v>50372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03258218140002334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0233915891199839</v>
+        <v>0.02345389869074525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04359200192017917</v>
+        <v>0.04465576189111684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3415,19 +3415,19 @@
         <v>54136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41176</v>
+        <v>40054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71161</v>
+        <v>72538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04298040472241126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03269105338125101</v>
+        <v>0.03180028154401049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05649700408506704</v>
+        <v>0.05758990138682714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -3436,19 +3436,19 @@
         <v>90889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73293</v>
+        <v>72872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111312</v>
+        <v>110459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03806778391662461</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03069790138287806</v>
+        <v>0.03052163134494723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04662188942963236</v>
+        <v>0.04626456868853684</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1091244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1078825</v>
+        <v>1077625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1101611</v>
+        <v>1101541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9674178185999767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.956407998079821</v>
+        <v>0.955344238108883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9766084108800162</v>
+        <v>0.9765461013092543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -3486,19 +3486,19 @@
         <v>1205425</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1188400</v>
+        <v>1187023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1218385</v>
+        <v>1219507</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9570195952775887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9435029959149328</v>
+        <v>0.9424100986131733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9673089466187489</v>
+        <v>0.9681997184559895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2168</v>
@@ -3507,19 +3507,19 @@
         <v>2296669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2276246</v>
+        <v>2277099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2314265</v>
+        <v>2314686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9619322160833754</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.953378110570368</v>
+        <v>0.9537354313114633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.969302098617122</v>
+        <v>0.9694783686550529</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>33545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23274</v>
+        <v>23953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46192</v>
+        <v>46910</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03691036179415168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02560859920179209</v>
+        <v>0.02635604007528218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05082613217561296</v>
+        <v>0.05161641067576744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3632,19 +3632,19 @@
         <v>54196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41792</v>
+        <v>41159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70570</v>
+        <v>73097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05384734501552468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04152357607678968</v>
+        <v>0.04089436292207253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07011575946278654</v>
+        <v>0.07262708064641364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3653,19 +3653,19 @@
         <v>87741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70534</v>
+        <v>69556</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110190</v>
+        <v>109599</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04581061477787789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03682685653831567</v>
+        <v>0.03631612458920697</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05753140893820712</v>
+        <v>0.05722301498360049</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>875280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>862633</v>
+        <v>861915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>885551</v>
+        <v>884872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9630896382058484</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9491738678243871</v>
+        <v>0.9483835893242326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.974391400798208</v>
+        <v>0.9736439599247179</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>904</v>
@@ -3703,19 +3703,19 @@
         <v>952279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>935905</v>
+        <v>933378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>964683</v>
+        <v>965316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9461526549844753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9298842405372135</v>
+        <v>0.9273729193535859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9584764239232103</v>
+        <v>0.9591056370779275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1751</v>
@@ -3724,19 +3724,19 @@
         <v>1827559</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1805110</v>
+        <v>1805701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1844766</v>
+        <v>1845744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9541893852221222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.942468591061793</v>
+        <v>0.9427769850163991</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9631731434616844</v>
+        <v>0.9636838754107929</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>35333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24626</v>
+        <v>24868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47857</v>
+        <v>49014</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04289206279263907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02989441997720613</v>
+        <v>0.03018797259256841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05809601137101143</v>
+        <v>0.05950025101058476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3849,19 +3849,19 @@
         <v>27129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17117</v>
+        <v>16947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41333</v>
+        <v>38725</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03518421896548785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02219949229731372</v>
+        <v>0.0219784135307996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05360529410107642</v>
+        <v>0.05022305180258284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3870,19 +3870,19 @@
         <v>62462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48790</v>
+        <v>48375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81690</v>
+        <v>82097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03916549333304471</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03059291307766788</v>
+        <v>0.03033260132843651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05122232517506169</v>
+        <v>0.05147731211813484</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>788426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>775902</v>
+        <v>774745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>799133</v>
+        <v>798891</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.957107937207361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9419039886289886</v>
+        <v>0.9404997489894152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9701055800227939</v>
+        <v>0.9698120274074317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>706</v>
@@ -3920,19 +3920,19 @@
         <v>743930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729726</v>
+        <v>732334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>753942</v>
+        <v>754112</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9648157810345122</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9463947058989236</v>
+        <v>0.9497769481974173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9778005077026862</v>
+        <v>0.9780215864692006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1458</v>
@@ -3941,19 +3941,19 @@
         <v>1532356</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1513128</v>
+        <v>1512721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1546028</v>
+        <v>1546443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9608345066669552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9487776748249384</v>
+        <v>0.9485226878818651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9694070869223321</v>
+        <v>0.9696673986715635</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>21003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12878</v>
+        <v>13823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31153</v>
+        <v>32404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04144982646357225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02541567867677495</v>
+        <v>0.02728065177781157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06148246022417858</v>
+        <v>0.06395010773036031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4066,19 +4066,19 @@
         <v>21886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13999</v>
+        <v>13127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32687</v>
+        <v>33419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04469207154876106</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02858652503332805</v>
+        <v>0.02680533643980833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06674996485605834</v>
+        <v>0.06824486317029531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4087,19 +4087,19 @@
         <v>42888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31716</v>
+        <v>31377</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59245</v>
+        <v>58272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04304328485943176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03183082224953956</v>
+        <v>0.03149013250729699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0594595265165773</v>
+        <v>0.05848234517025083</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>485698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>475548</v>
+        <v>474297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493823</v>
+        <v>492878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9585501735364278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9385175397758219</v>
+        <v>0.9360498922696396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745843213232253</v>
+        <v>0.9727193482221884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>436</v>
@@ -4137,19 +4137,19 @@
         <v>467812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457011</v>
+        <v>456279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475699</v>
+        <v>476571</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9553079284512389</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9332500351439416</v>
+        <v>0.9317551368297047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9714134749666719</v>
+        <v>0.9731946635601917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>887</v>
@@ -4158,19 +4158,19 @@
         <v>953510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>937153</v>
+        <v>938126</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>964682</v>
+        <v>965021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9569567151405682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.940540473483423</v>
+        <v>0.9415176548297491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9681691777504609</v>
+        <v>0.9685098674927031</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>126633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107030</v>
+        <v>105195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149624</v>
+        <v>148587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03760690502614823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03178524534740267</v>
+        <v>0.03124046872836205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04443477761447309</v>
+        <v>0.04412662205817398</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -4283,19 +4283,19 @@
         <v>157347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131965</v>
+        <v>133082</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185231</v>
+        <v>182892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04461480453432777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03741776417234034</v>
+        <v>0.03773458198475245</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05252098082471635</v>
+        <v>0.05185797185077531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -4304,19 +4304,19 @@
         <v>283980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253116</v>
+        <v>250302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>320538</v>
+        <v>321148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04119192663171226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03671501484793515</v>
+        <v>0.03630686583711199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04649476948769627</v>
+        <v>0.04658322374414165</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3240649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3217658</v>
+        <v>3218695</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3260252</v>
+        <v>3262087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9623930949738517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9555652223855268</v>
+        <v>0.955873377941826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9682147546525972</v>
+        <v>0.9687595312716378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3186</v>
@@ -4354,19 +4354,19 @@
         <v>3369445</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3341561</v>
+        <v>3343900</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3394827</v>
+        <v>3393710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9553851954656722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9474790191752837</v>
+        <v>0.9481420281492248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9625822358276597</v>
+        <v>0.9622654180152476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6264</v>
@@ -4375,19 +4375,19 @@
         <v>6610095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6573537</v>
+        <v>6572927</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6640959</v>
+        <v>6643773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9588080733682878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9535052305123037</v>
+        <v>0.9534167762558584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.963284985152065</v>
+        <v>0.9636931341628885</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30524</v>
+        <v>30639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54733</v>
+        <v>54433</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08256483143288426</v>
+        <v>0.08256483143288428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06130925488981526</v>
+        <v>0.06153945966289249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109934079791172</v>
+        <v>0.1093306642057317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -4740,19 +4740,19 @@
         <v>39012</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30505</v>
+        <v>30427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48982</v>
+        <v>49059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06268932824674131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04901986669291646</v>
+        <v>0.04889468755914111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0787102597292253</v>
+        <v>0.07883382373996041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -4761,19 +4761,19 @@
         <v>80119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64646</v>
+        <v>65164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96308</v>
+        <v>97663</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07152314570063299</v>
+        <v>0.07152314570063301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05771020043162595</v>
+        <v>0.05817290384396916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08597529069752188</v>
+        <v>0.08718519586485675</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>456764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443138</v>
+        <v>443438</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467347</v>
+        <v>467232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9174351685671157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8900659202088279</v>
+        <v>0.890669335794268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9386907451101846</v>
+        <v>0.9384605403371075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>793</v>
@@ -4811,19 +4811,19 @@
         <v>583294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>573324</v>
+        <v>573247</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>591801</v>
+        <v>591879</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9373106717532588</v>
+        <v>0.9373106717532589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9212897402707748</v>
+        <v>0.9211661762600397</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9509801333070835</v>
+        <v>0.9511053124408588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -4832,19 +4832,19 @@
         <v>1040058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1023869</v>
+        <v>1022514</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1055531</v>
+        <v>1055013</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9284768542993669</v>
+        <v>0.928476854299367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9140247093024778</v>
+        <v>0.912814804135143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9422897995683728</v>
+        <v>0.9418270961560308</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>56707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44132</v>
+        <v>44677</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71358</v>
+        <v>70688</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05914622441841686</v>
+        <v>0.05914622441841687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04602996071699773</v>
+        <v>0.04659939045864963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0744278789678785</v>
+        <v>0.07372924859445468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4957,19 +4957,19 @@
         <v>53026</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42438</v>
+        <v>41405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64991</v>
+        <v>64312</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.047579013819951</v>
+        <v>0.04757901381995099</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03807858215268879</v>
+        <v>0.03715167781334269</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05831533456424823</v>
+        <v>0.05770569697946022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -4978,19 +4978,19 @@
         <v>109733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94167</v>
+        <v>94098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128399</v>
+        <v>129990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05292821092657653</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04542051100002836</v>
+        <v>0.04538726809834617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06193174318477662</v>
+        <v>0.06269925032314355</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>902049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887398</v>
+        <v>888068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914624</v>
+        <v>914079</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.940853775581583</v>
+        <v>0.9408537755815831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9255721210321207</v>
+        <v>0.9262707514055453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9539700392830016</v>
+        <v>0.9534006095413503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1509</v>
@@ -5028,19 +5028,19 @@
         <v>1061451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1049486</v>
+        <v>1050165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072039</v>
+        <v>1073072</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.952420986180049</v>
+        <v>0.9524209861800489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9416846654357519</v>
+        <v>0.9422943030205397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9619214178473112</v>
+        <v>0.9628483221866571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2340</v>
@@ -5049,19 +5049,19 @@
         <v>1963500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1944834</v>
+        <v>1943243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1979066</v>
+        <v>1979135</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9470717890734235</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9380682568152234</v>
+        <v>0.9373007496768564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9545794889999717</v>
+        <v>0.9546127319016537</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>41807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32293</v>
+        <v>32150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54445</v>
+        <v>53649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03995001573442523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03085915449830281</v>
+        <v>0.0307215967886702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05202708091625384</v>
+        <v>0.05126572430293137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -5174,19 +5174,19 @@
         <v>45963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35997</v>
+        <v>34958</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58728</v>
+        <v>58931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04390026455065749</v>
+        <v>0.0439002645506575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0343817370745541</v>
+        <v>0.03338914073249277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05609203019603028</v>
+        <v>0.05628641347084994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -5195,19 +5195,19 @@
         <v>87770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74388</v>
+        <v>73784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107497</v>
+        <v>107153</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04192562251368562</v>
+        <v>0.04192562251368561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0355331796099253</v>
+        <v>0.03524499238613798</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05134849909321386</v>
+        <v>0.05118436402325592</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1004672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>992034</v>
+        <v>992830</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1014186</v>
+        <v>1014329</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9600499842655748</v>
+        <v>0.9600499842655746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9479729190837463</v>
+        <v>0.9487342756970686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691408455016972</v>
+        <v>0.96927840321133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1440</v>
@@ -5245,19 +5245,19 @@
         <v>1001028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>988263</v>
+        <v>988060</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1010994</v>
+        <v>1012033</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9560997354493426</v>
+        <v>0.9560997354493423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9439079698039702</v>
+        <v>0.9437135865291502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9656182629254462</v>
+        <v>0.9666108592675073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2412</v>
@@ -5266,19 +5266,19 @@
         <v>2005700</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1985973</v>
+        <v>1986317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2019082</v>
+        <v>2019686</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9580743774863143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9486515009067864</v>
+        <v>0.948815635976744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9644668203900747</v>
+        <v>0.9647550076138619</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>49754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37579</v>
+        <v>37290</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65436</v>
+        <v>66833</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05098095773349663</v>
+        <v>0.05098095773349662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03850615481330461</v>
+        <v>0.03820992544143673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0670496192926469</v>
+        <v>0.06848164533962606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -5391,19 +5391,19 @@
         <v>22787</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16466</v>
+        <v>15777</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30261</v>
+        <v>30433</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02509985821223677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01813713436157583</v>
+        <v>0.01737828255264959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03333301269477726</v>
+        <v>0.0335215530811484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -5412,19 +5412,19 @@
         <v>72541</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59753</v>
+        <v>59594</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92394</v>
+        <v>90117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03850807520158051</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03171962167410226</v>
+        <v>0.03163524504460299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04904692409252716</v>
+        <v>0.04783863663588672</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>926175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910493</v>
+        <v>909096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938350</v>
+        <v>938639</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9490190422665034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9329503807073528</v>
+        <v>0.931518354660374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9614938451866955</v>
+        <v>0.9617900745585634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1279</v>
@@ -5462,19 +5462,19 @@
         <v>885063</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>877589</v>
+        <v>877417</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891384</v>
+        <v>892073</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9749001417877631</v>
+        <v>0.9749001417877633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9666669873052227</v>
+        <v>0.9664784469188514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818628656384242</v>
+        <v>0.9826217174473503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2165</v>
@@ -5483,19 +5483,19 @@
         <v>1811238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1791385</v>
+        <v>1793662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1824026</v>
+        <v>1824185</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9614919247984194</v>
+        <v>0.9614919247984195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9509530759074721</v>
+        <v>0.9521613633641129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9682803783258975</v>
+        <v>0.968364754955397</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>189374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>165838</v>
+        <v>167630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214981</v>
+        <v>217534</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05443293292532869</v>
+        <v>0.0544329329253287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0476677173411325</v>
+        <v>0.04818286387030958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06179335050468988</v>
+        <v>0.0625271716594251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -5608,19 +5608,19 @@
         <v>160788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140533</v>
+        <v>141010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180133</v>
+        <v>182979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04355474637012145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03806804117664828</v>
+        <v>0.03819715727979942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04879509534885816</v>
+        <v>0.04956605864081123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>519</v>
@@ -5629,19 +5629,19 @@
         <v>350162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>319348</v>
+        <v>321240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>383984</v>
+        <v>385018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04883258727089231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0445353226088839</v>
+        <v>0.04479927147758615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05354940048979193</v>
+        <v>0.05369353874324158</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3289662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3264055</v>
+        <v>3261502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3313198</v>
+        <v>3311406</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9455670670746712</v>
+        <v>0.9455670670746714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.93820664949531</v>
+        <v>0.9374728283405749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9523322826588675</v>
+        <v>0.9518171361296904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5021</v>
@@ -5679,19 +5679,19 @@
         <v>3530835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3511490</v>
+        <v>3508644</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3551090</v>
+        <v>3550613</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9564452536298784</v>
+        <v>0.9564452536298785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9512049046511416</v>
+        <v>0.9504339413591887</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9619319588233518</v>
+        <v>0.9618028427202009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8118</v>
@@ -5700,19 +5700,19 @@
         <v>6820497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6786675</v>
+        <v>6785641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6851311</v>
+        <v>6849419</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9511674127291077</v>
+        <v>0.9511674127291078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9464505995102082</v>
+        <v>0.946306461256759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9554646773911162</v>
+        <v>0.9552007285224149</v>
       </c>
     </row>
     <row r="18">
